--- a/Examples/AHP_Ratings_Lunch/LunchModel_Ratings_Table_filledin.xlsx
+++ b/Examples/AHP_Ratings_Lunch/LunchModel_Ratings_Table_filledin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/GITHUB/AhpAnpLib/Examples/AHP Ratings Lunch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/GITHUB/AhpAnpLib/Examples/AHP_Ratings_Lunch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1769F717-82E3-8349-9CC5-EB2C62711C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F89EC84-5134-BB4F-B852-0C11D49432AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2100" yWindow="460" windowWidth="28800" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rating_scales" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -277,6 +277,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -926,9 +927,6 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E16">
-        <v>6</v>
-      </c>
       <c r="F16" s="13" t="s">
         <v>10</v>
       </c>
@@ -1288,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E4"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1376,17 +1374,17 @@
       <c r="G7" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>16</v>
+      <c r="B9" s="21">
+        <v>0.26094304063619689</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.11895926989795851</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.16892798352672231</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.45116970593912242</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>24</v>
@@ -1396,107 +1394,185 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="8">
-        <v>0.26094304063619689</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.11895926989795851</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.16892798352672231</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0.45116970593912242</v>
+      <c r="B10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8">
+        <f>INDEX(rating_scales!I3:I6, MATCH(B2,rating_scales!A3:A6, 0))</f>
+        <v>0.61465721040189125</v>
+      </c>
+      <c r="C11" s="8">
+        <f>INDEX(rating_scales!H12:H14, MATCH(C2,rating_scales!A12:A14, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <f>INDEX(rating_scales!I20:I23, MATCH(D2,rating_scales!A20:A23, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <f>INDEX(rating_scales!H29:H31, MATCH(E2,rating_scales!A29:A31, 0))</f>
+        <v>0.19791666666666669</v>
+      </c>
+      <c r="F11" s="19">
+        <f>SUMPRODUCT(B11:E11,B9:E9)</f>
+        <v>0.53757177915636423</v>
+      </c>
+      <c r="G11" s="20">
+        <f>F11/SUM(F11:F13)</f>
+        <v>0.55205566946940232</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="8">
-        <f>INDEX(rating_scales!I3:I6, MATCH(B2,rating_scales!A3:A6, 0))</f>
-        <v>0.61465721040189125</v>
+        <f>INDEX(rating_scales!I3:I6, MATCH(B3,rating_scales!A3:A6, 0))</f>
+        <v>8.4430935494765283E-2</v>
       </c>
       <c r="C12" s="8">
-        <f>INDEX(rating_scales!H12:H14, MATCH(C2,rating_scales!A12:A14, 0))</f>
-        <v>1</v>
+        <f>INDEX(rating_scales!H12:H14, MATCH(C3,rating_scales!A12:A14, 0))</f>
+        <v>0.5</v>
       </c>
       <c r="D12" s="8">
-        <f>INDEX(rating_scales!I20:I23, MATCH(D2,rating_scales!A20:A23, 0))</f>
-        <v>1</v>
+        <f>INDEX(rating_scales!I20:I23, MATCH(D3,rating_scales!A20:A23, 0))</f>
+        <v>8.4430935494765283E-2</v>
       </c>
       <c r="E12" s="8">
-        <f>INDEX(rating_scales!H29:H31, MATCH(E2,rating_scales!A29:A31, 0))</f>
+        <f>INDEX(rating_scales!H29:H31, MATCH(E3,rating_scales!A29:A31, 0))</f>
         <v>0.19791666666666669</v>
       </c>
       <c r="F12" s="19">
-        <f>SUMPRODUCT(B12:E12,B10:E10)</f>
-        <v>0.53757177915636423</v>
+        <f>SUMPRODUCT(B12:E12,B9:E9)</f>
+        <v>0.1850680519615987</v>
       </c>
       <c r="G12" s="20">
-        <f>F12/SUM(F12:F14)</f>
-        <v>0.55205566946940232</v>
+        <f>F12/SUM(F11:F13)</f>
+        <v>0.1900543728009591</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8">
-        <f>INDEX(rating_scales!I3:I6, MATCH(B3,rating_scales!A3:A6, 0))</f>
-        <v>8.4430935494765283E-2</v>
-      </c>
-      <c r="C13" s="8">
-        <f>INDEX(rating_scales!H12:H14, MATCH(C3,rating_scales!A12:A14, 0))</f>
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="8">
-        <f>INDEX(rating_scales!I20:I23, MATCH(D3,rating_scales!A20:A23, 0))</f>
-        <v>8.4430935494765283E-2</v>
-      </c>
-      <c r="E13" s="8">
-        <f>INDEX(rating_scales!H29:H31, MATCH(E3,rating_scales!A29:A31, 0))</f>
-        <v>0.19791666666666669</v>
-      </c>
-      <c r="F13" s="19">
-        <f>SUMPRODUCT(B13:E13,B10:E10)</f>
-        <v>0.1850680519615987</v>
-      </c>
-      <c r="G13" s="20">
-        <f>F13/SUM(F12:F14)</f>
-        <v>0.1900543728009591</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="8">
         <f>INDEX(rating_scales!I3:I6, MATCH(B4,rating_scales!A3:A6, 0))</f>
         <v>0.23809523809523808</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C13" s="8">
         <f>INDEX(rating_scales!H12:H14, MATCH(C4,rating_scales!A12:A14, 0))</f>
         <v>0.5</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D13" s="8">
         <f>INDEX(rating_scales!I20:I23, MATCH(D4,rating_scales!A20:A23, 0))</f>
         <v>0.23809523809523808</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E13" s="8">
         <f>INDEX(rating_scales!H29:H31, MATCH(E4,rating_scales!A29:A31, 0))</f>
         <v>0.19791666666666669</v>
       </c>
-      <c r="F14" s="19">
-        <f>SUMPRODUCT(B14:E14,B10:E10)</f>
+      <c r="F13" s="19">
+        <f>SUMPRODUCT(B13:E13,B9:E9)</f>
         <v>0.25112388309774469</v>
       </c>
-      <c r="G14" s="20">
-        <f>F14/SUM(F12:F14)</f>
+      <c r="G13" s="20">
+        <f>F13/SUM(F11:F13)</f>
         <v>0.25788995772963857</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A3:A6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A3:A6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A3:A6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000003000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A12:A14</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000004000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A12:A14</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000005000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A12:A14</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000006000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A20:A23</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000007000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A20:A23</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000008000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A20:A23</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000009000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A29:A31</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A29:A31</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+          <x14:formula1>
+            <xm:f>rating_scales!A29:A31</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>